--- a/Output/AllModels_sensitivityOnlyPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityOnlyPushing_12000.xlsx
@@ -1,437 +1,430 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346FFDD3-E0D1-4781-97E5-079CC468849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="135">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>exp(Est.)_hu</t>
-  </si>
-  <si>
-    <t>95% CI_hu</t>
-  </si>
-  <si>
-    <t>exp(Est.)_nonzero</t>
-  </si>
-  <si>
-    <t>95% CI_nonzero</t>
-  </si>
-  <si>
-    <t>exp(Est.)</t>
-  </si>
-  <si>
-    <t>95% CI</t>
-  </si>
-  <si>
-    <t>Est.</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>3.76***</t>
-  </si>
-  <si>
-    <t>[ 2.25,  6.31]</t>
-  </si>
-  <si>
-    <t>57.45***</t>
-  </si>
-  <si>
-    <t>[49.32, 66.95]</t>
-  </si>
-  <si>
-    <t>124.20***</t>
-  </si>
-  <si>
-    <t>[109.92, 140.26]</t>
-  </si>
-  <si>
-    <t>3.77***</t>
-  </si>
-  <si>
-    <t>[ 3.54, 3.99]</t>
-  </si>
-  <si>
-    <t>0.40***</t>
-  </si>
-  <si>
-    <t>[0.23,  0.68]</t>
-  </si>
-  <si>
-    <t>Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t>Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>Daily pressure experienced</t>
-  </si>
-  <si>
-    <t>Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>Daily pushing experienced</t>
-  </si>
-  <si>
-    <t>1.55**</t>
-  </si>
-  <si>
-    <t>[ 1.17,  2.20]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.91,  1.03]</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[  0.97,   1.08]</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>[-0.05, 0.09]</t>
-  </si>
-  <si>
-    <t>1.36*</t>
-  </si>
-  <si>
-    <t>[1.06,  1.86]</t>
-  </si>
-  <si>
-    <t>Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.84***</t>
-  </si>
-  <si>
-    <t>[ 1.36,  2.72]</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.03]</t>
-  </si>
-  <si>
-    <t>[  0.97,   1.06]</t>
-  </si>
-  <si>
-    <t>0.09*</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.17]</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>[0.79,  2.09]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>0.61*</t>
-  </si>
-  <si>
-    <t>[ 0.37,  0.99]</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[ 0.78,  1.06]</t>
-  </si>
-  <si>
-    <t>[  0.87,   1.08]</t>
-  </si>
-  <si>
-    <t>0.28**</t>
-  </si>
-  <si>
-    <t>[ 0.11, 0.45]</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>[0.68,  4.67]</t>
-  </si>
-  <si>
-    <t>Own Actionplan</t>
-  </si>
-  <si>
-    <t>Partner Actionplan</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00**</t>
-  </si>
-  <si>
-    <t>[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t>Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>Mean pressure experienced</t>
-  </si>
-  <si>
-    <t>Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>Mean pushing experienced</t>
-  </si>
-  <si>
-    <t>0.47**</t>
-  </si>
-  <si>
-    <t>[ 0.25,  0.80]</t>
-  </si>
-  <si>
-    <t>1.31*</t>
-  </si>
-  <si>
-    <t>[ 1.00,  1.71]</t>
-  </si>
-  <si>
-    <t>[  0.85,   1.10]</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.34]</t>
-  </si>
-  <si>
-    <t>5.45***</t>
-  </si>
-  <si>
-    <t>[2.33, 15.45]</t>
-  </si>
-  <si>
-    <t>Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>[ 0.34,  1.08]</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.89,  1.52]</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>[  0.92,   1.18]</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.30]</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>[0.93,  6.75]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>[0.92, 1.75]</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>[0.28, 0.50]</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>[0.24, 0.42]</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>[0.48, 0.80]</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>[1.03, 2.23]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>[0.07, 1.03]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>[0.01, 0.55]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>[0.08, 1.11]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.18]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>[0.06, 0.24]</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>[0.03, 1.14]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>[0.64, 0.70]</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>[0.52, 0.57]</t>
-  </si>
-  <si>
-    <t>[0.87, 0.94]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 2.27,  6.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.59***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[49.36, 67.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.09***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[109.75, 140.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.54, 4.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.22,  0.68]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.18,  2.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.97,   1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.05, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.06,  1.85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.36,  2.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.97,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.80,  2.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.37,  0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.79,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.87,   1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.11, 0.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.68,  4.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.25,  0.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,  1.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.85,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.08, 0.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.34, 16.44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.34,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11, 0.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.93,  7.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.93, 1.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.28, 0.50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.24, 0.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.04, 2.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.06, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.09, 1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.06, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.64, 0.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.52, 0.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.87, 0.94]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,16 +438,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -474,28 +467,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,35 +496,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -821,64 +791,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -913,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -948,43 +903,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1"/>
@@ -998,8 +953,8 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1"/>
@@ -1013,8 +968,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1"/>
@@ -1028,8 +983,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+    <row r="8">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1"/>
@@ -1043,8 +998,8 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+    <row r="9">
+      <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1078,8 +1033,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+    <row r="10">
+      <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1113,8 +1068,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+    <row r="11">
+      <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1148,8 +1103,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+    <row r="12">
+      <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1"/>
@@ -1163,8 +1118,8 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+    <row r="13">
+      <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="1"/>
@@ -1178,8 +1133,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+    <row r="14">
+      <c r="A14" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="1"/>
@@ -1197,43 +1152,43 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+    <row r="16">
+      <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="1"/>
@@ -1247,8 +1202,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+    <row r="17">
+      <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="1"/>
@@ -1262,8 +1217,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+    <row r="18">
+      <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="1"/>
@@ -1277,8 +1232,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+    <row r="19">
+      <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="1"/>
@@ -1292,8 +1247,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
+    <row r="20">
+      <c r="A20" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1327,8 +1282,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
+    <row r="21">
+      <c r="A21" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1362,8 +1317,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+    <row r="22">
+      <c r="A22" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="1"/>
@@ -1381,43 +1336,43 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
+    <row r="24">
+      <c r="A24" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1451,8 +1406,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+    <row r="25">
+      <c r="A25" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="1"/>
@@ -1466,8 +1421,8 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
+    <row r="26">
+      <c r="A26" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B26" s="1"/>
@@ -1481,8 +1436,8 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
+    <row r="27">
+      <c r="A27" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B27" s="1"/>
@@ -1496,8 +1451,8 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
+    <row r="28">
+      <c r="A28" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B28" s="1"/>
@@ -1511,8 +1466,8 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="7" t="s">
+    <row r="29">
+      <c r="A29" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1546,8 +1501,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+    <row r="30">
+      <c r="A30" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1581,43 +1536,43 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="10" t="s">
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
+    <row r="32">
+      <c r="A32" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="4"/>
@@ -1643,36 +1598,36 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="7"/>
+    <row r="33">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A31:K31"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/AllModels_sensitivityOnlyPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityOnlyPushing_12000.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,19 +32,61 @@
     <t xml:space="preserve">exp(Est.)_hu</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI_hu</t>
+    <t xml:space="preserve">SE_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence_hu</t>
   </si>
   <si>
     <t xml:space="preserve">exp(Est.)_nonzero</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI_nonzero</t>
+    <t xml:space="preserve">SE_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence_nonzero</t>
   </si>
   <si>
     <t xml:space="preserve">exp(Est.)</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI</t>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence</t>
   </si>
   <si>
     <t xml:space="preserve">Est.</t>
@@ -59,138 +101,363 @@
     <t xml:space="preserve">3.79***</t>
   </si>
   <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 2.27,  6.40]</t>
   </si>
   <si>
+    <t xml:space="preserve">1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84, 1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwhelming Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">57.59***</t>
   </si>
   <si>
+    <t xml:space="preserve">4.47</t>
+  </si>
+  <si>
     <t xml:space="preserve">[49.36, 67.11]</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.93, 1.08]</t>
+  </si>
+  <si>
     <t xml:space="preserve">124.09***</t>
   </si>
   <si>
+    <t xml:space="preserve">7.54</t>
+  </si>
+  <si>
     <t xml:space="preserve">[109.75, 140.55]</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.94, 1.06]</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.77***</t>
   </si>
   <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 3.54, 4.00]</t>
   </si>
   <si>
+    <t xml:space="preserve">[-0.11, 0.11]</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.40***</t>
   </si>
   <si>
     <t xml:space="preserve">[0.22,  0.68]</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.83, 1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Within-Person Effects</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
   </si>
   <si>
     <t xml:space="preserve">1.55**</t>
   </si>
   <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 1.18,  2.18]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.97</t>
   </si>
   <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.91,  1.03]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Strong Evidence for Null</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.02</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.97,   1.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.015</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.05, 0.09]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.36*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
     <t xml:space="preserve">[1.06,  1.85]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+    <t xml:space="preserve">0.992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak Evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
   </si>
   <si>
     <t xml:space="preserve">1.84***</t>
   </si>
   <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 1.36,  2.72]</t>
   </si>
   <si>
+    <t xml:space="preserve">78.846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Strong Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.90,  1.03]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903</t>
+  </si>
+  <si>
     <t xml:space="preserve">[  0.97,   1.06]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.010</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.09*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.00, 0.17]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong Evidence for Null</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.16</t>
   </si>
   <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.80,  2.11]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate Evidence for Null</t>
+  </si>
+  <si>
     <t xml:space="preserve">Day</t>
   </si>
   <si>
     <t xml:space="preserve">0.61*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.37,  0.99]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak Evidence for Null</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.91</t>
   </si>
   <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.79,  1.05]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
     <t xml:space="preserve">[  0.87,   1.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.28**</t>
   </si>
   <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.11, 0.45]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.79</t>
   </si>
   <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.68,  4.80]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own Actionplan</t>
   </si>
   <si>
@@ -203,55 +470,103 @@
     <t xml:space="preserve">1.00**</t>
   </si>
   <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">[  1.00,   1.00]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.372</t>
+  </si>
+  <si>
     <t xml:space="preserve">Between-Person Effects</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
   </si>
   <si>
     <t xml:space="preserve">0.47**</t>
   </si>
   <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.25,  0.80]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.592</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.32*</t>
   </si>
   <si>
     <t xml:space="preserve">[ 1.00,  1.72]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
     <t xml:space="preserve">[  0.85,   1.10]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13</t>
+    <t xml:space="preserve">0.688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.08, 0.33]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.67***</t>
   </si>
   <si>
+    <t xml:space="preserve">2.78</t>
+  </si>
+  <si>
     <t xml:space="preserve">[2.34, 16.44]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
   </si>
   <si>
     <t xml:space="preserve">0.63</t>
@@ -260,36 +575,81 @@
     <t xml:space="preserve">[ 0.34,  1.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.17</t>
   </si>
   <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.90,  1.53]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.044</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.04</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.92,   1.18]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.09</t>
+    <t xml:space="preserve">0.736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.11, 0.29]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.543</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.40</t>
   </si>
   <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.93,  7.12]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean weartime</t>
   </si>
   <si>
     <t xml:space="preserve">1.00</t>
   </si>
   <si>
+    <t xml:space="preserve">0.813</t>
+  </si>
+  <si>
     <t xml:space="preserve">Random Effects</t>
   </si>
   <si>
@@ -299,6 +659,9 @@
     <t xml:space="preserve">1.25</t>
   </si>
   <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.93, 1.74]</t>
   </si>
   <si>
@@ -317,6 +680,9 @@
     <t xml:space="preserve">0.61</t>
   </si>
   <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.48, 0.80]</t>
   </si>
   <si>
@@ -326,39 +692,36 @@
     <t xml:space="preserve">[1.04, 2.24]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
   </si>
   <si>
     <t xml:space="preserve">0.47</t>
   </si>
   <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.06, 1.03]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.00, 0.15]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.02, 0.17]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.01, 0.16]</t>
   </si>
   <si>
@@ -368,21 +731,21 @@
     <t xml:space="preserve">[0.01, 0.55]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
   </si>
   <si>
     <t xml:space="preserve">0.51</t>
   </si>
   <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.09, 1.10]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.18]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.00, 0.10]</t>
   </si>
   <si>
@@ -395,6 +758,9 @@
     <t xml:space="preserve">0.42</t>
   </si>
   <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.03, 1.15]</t>
   </si>
   <si>
@@ -411,6 +777,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
   </si>
   <si>
     <t xml:space="preserve">[0.52, 0.57]</t>
@@ -815,21 +1184,111 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -859,88 +1318,358 @@
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -952,10 +1681,40 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -967,10 +1726,40 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -982,10 +1771,40 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -997,115 +1816,415 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="W10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
+      <c r="AE10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
+        <v>122</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>58</v>
+        <v>126</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1117,10 +2236,40 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1132,64 +2281,226 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1201,10 +2512,40 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1216,10 +2557,40 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1231,10 +2602,40 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1246,169 +2647,551 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>72</v>
+        <v>162</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>89</v>
+        <v>191</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>92</v>
+        <v>212</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1420,10 +3203,40 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1435,10 +3248,40 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1450,10 +3293,40 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1465,138 +3338,374 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -1618,14 +3727,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="A4:AO4"/>
+    <mergeCell ref="A15:AO15"/>
+    <mergeCell ref="A23:AO23"/>
+    <mergeCell ref="A31:AO31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Output/AllModels_sensitivityOnlyPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityOnlyPushing_12000.xlsx
@@ -71,13 +71,13 @@
     <t xml:space="preserve">3.79***</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 2.27,  6.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.59***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[49.36, 67.11]</t>
+    <t xml:space="preserve">[ 2.28,  6.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.44***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[49.33, 67.17]</t>
   </si>
   <si>
     <t xml:space="preserve">124.09***</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.40***</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.22,  0.68]</t>
+    <t xml:space="preserve">[0.22,  0.67]</t>
   </si>
   <si>
     <t xml:space="preserve">Within-Person Effects</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">1.55**</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.18,  2.18]</t>
+    <t xml:space="preserve">[ 1.17,  2.18]</t>
   </si>
   <si>
     <t xml:space="preserve">0.97</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">1.36*</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.06,  1.85]</t>
+    <t xml:space="preserve">[1.06,  1.84]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily partner's experienced pushing</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">[ 0.00, 0.17]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.80,  2.11]</t>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.79,  2.07]</t>
   </si>
   <si>
     <t xml:space="preserve">Day</t>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">[ 0.11, 0.45]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68,  4.80]</t>
+    <t xml:space="preserve">1.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.68,  4.81]</t>
   </si>
   <si>
     <t xml:space="preserve">Own Actionplan</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">1.32*</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.00,  1.72]</t>
+    <t xml:space="preserve">[ 1.01,  1.72]</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.85,   1.10]</t>
@@ -257,10 +257,10 @@
     <t xml:space="preserve">[-0.08, 0.33]</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.34, 16.44]</t>
+    <t xml:space="preserve">5.68***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.38, 16.59]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean partner's experienced pushing</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">1.17</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.90,  1.53]</t>
+    <t xml:space="preserve">[ 0.89,  1.53]</t>
   </si>
   <si>
     <t xml:space="preserve">1.04</t>
@@ -290,10 +290,10 @@
     <t xml:space="preserve">[-0.11, 0.29]</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.93,  7.12]</t>
+    <t xml:space="preserve">2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.94,  7.27]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean weartime</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">sd(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.93, 1.74]</t>
+    <t xml:space="preserve">1.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.92, 1.75]</t>
   </si>
   <si>
     <t xml:space="preserve">0.37</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">1.53</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.04, 2.24]</t>
+    <t xml:space="preserve">[1.04, 2.25]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">0.47</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.06, 1.03]</t>
+    <t xml:space="preserve">[0.07, 1.02]</t>
   </si>
   <si>
     <t xml:space="preserve">0.06</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
+    <t xml:space="preserve">[0.00, 0.16]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.02, 0.17]</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">[0.06, 0.24]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 1.15]</t>
+    <t xml:space="preserve">0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 1.12]</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Parameters</t>

--- a/Output/AllModels_sensitivityOnlyPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityOnlyPushing_12000.xlsx
@@ -209,7 +209,7 @@
     <t xml:space="preserve">Partner Actionplan</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily weartime</t>
+    <t xml:space="preserve">Daily wear time</t>
   </si>
   <si>
     <t xml:space="preserve">1.00**</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">[0.94,  7.27]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean weartime</t>
+    <t xml:space="preserve">Mean wear time</t>
   </si>
   <si>
     <t xml:space="preserve">1.00</t>
